--- a/MCMC-based_Bayesian_data_plots.xlsx
+++ b/MCMC-based_Bayesian_data_plots.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukezhaoliang/Documents/Dell F/RLanguage/Comparison2/Relevant_R_packages_codes_submit_GitHub/Zhao_et_al_2023_Frontiers_in_Public_Health--main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9B06AF-F6BC-4941-A9C7-A30935FF4C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5896152-7119-C74D-B00B-5DEF3F26A233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34560" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{967D4911-ED87-0F4D-A007-79DB020B04AE}"/>
   </bookViews>
   <sheets>
     <sheet name="MCMCpack" sheetId="2" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,10 +44,10 @@
     <t>N1</t>
   </si>
   <si>
-    <t>MCMC</t>
+    <t>Linear</t>
   </si>
   <si>
-    <t>Linear</t>
+    <t>MCMC-based Bayesian</t>
   </si>
 </sst>
 </file>
@@ -188,7 +185,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MCMC</c:v>
+                  <c:v>MCMC-based Bayesian</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2910,298 +2907,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="OperL"/>
-      <sheetName val="NperL"/>
-      <sheetName val="JperL"/>
-      <sheetName val="Total1"/>
-      <sheetName val="OperDay"/>
-      <sheetName val="NperDay"/>
-      <sheetName val="JperDay"/>
-      <sheetName val="Total2"/>
-      <sheetName val="OperPDay"/>
-      <sheetName val="NperPDay"/>
-      <sheetName val="JperPDay"/>
-      <sheetName val="Total3"/>
-      <sheetName val="TotalperL"/>
-      <sheetName val="TotalperDay"/>
-      <sheetName val="TotalperPDay"/>
-      <sheetName val="wcratiocal"/>
-      <sheetName val="wcratio"/>
-      <sheetName val="MCMCpack"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>N1</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>MCMC</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Linear</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>44470</v>
-          </cell>
-          <cell r="C2">
-            <v>44470</v>
-          </cell>
-          <cell r="D2">
-            <v>1193.9291000000001</v>
-          </cell>
-          <cell r="E2">
-            <v>44470</v>
-          </cell>
-          <cell r="F2">
-            <v>1588.0740816011601</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>44471</v>
-          </cell>
-          <cell r="C3">
-            <v>44471</v>
-          </cell>
-          <cell r="D3">
-            <v>1111.9536000000001</v>
-          </cell>
-          <cell r="E3">
-            <v>44471</v>
-          </cell>
-          <cell r="F3">
-            <v>1588.0740816011601</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>44472</v>
-          </cell>
-          <cell r="C4">
-            <v>44472</v>
-          </cell>
-          <cell r="D4">
-            <v>956.00210000000004</v>
-          </cell>
-          <cell r="E4">
-            <v>44472</v>
-          </cell>
-          <cell r="F4">
-            <v>1588.0740816011601</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>44473</v>
-          </cell>
-          <cell r="B5">
-            <v>1588.0740816011621</v>
-          </cell>
-          <cell r="C5">
-            <v>44473</v>
-          </cell>
-          <cell r="D5">
-            <v>1588.0740816011621</v>
-          </cell>
-          <cell r="E5">
-            <v>44473</v>
-          </cell>
-          <cell r="F5">
-            <v>1588.0740816011601</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>44474</v>
-          </cell>
-          <cell r="C6">
-            <v>44474</v>
-          </cell>
-          <cell r="D6">
-            <v>1193.9291000000001</v>
-          </cell>
-          <cell r="E6">
-            <v>44474</v>
-          </cell>
-          <cell r="F6">
-            <v>1403.4896941591001</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>44475</v>
-          </cell>
-          <cell r="B7">
-            <v>1218.9053067170344</v>
-          </cell>
-          <cell r="C7">
-            <v>44475</v>
-          </cell>
-          <cell r="D7">
-            <v>1218.9053067170344</v>
-          </cell>
-          <cell r="E7">
-            <v>44475</v>
-          </cell>
-          <cell r="F7">
-            <v>1218.90530671703</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>44476</v>
-          </cell>
-          <cell r="C8">
-            <v>44476</v>
-          </cell>
-          <cell r="D8">
-            <v>1111.9536000000001</v>
-          </cell>
-          <cell r="E8">
-            <v>44476</v>
-          </cell>
-          <cell r="F8">
-            <v>1159.8256010212599</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>44477</v>
-          </cell>
-          <cell r="C9">
-            <v>44477</v>
-          </cell>
-          <cell r="D9">
-            <v>956.00210000000004</v>
-          </cell>
-          <cell r="E9">
-            <v>44477</v>
-          </cell>
-          <cell r="F9">
-            <v>1100.74589532548</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>44478</v>
-          </cell>
-          <cell r="C10">
-            <v>44478</v>
-          </cell>
-          <cell r="D10">
-            <v>1193.9291000000001</v>
-          </cell>
-          <cell r="E10">
-            <v>44478</v>
-          </cell>
-          <cell r="F10">
-            <v>1041.6661896297001</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>44479</v>
-          </cell>
-          <cell r="C11">
-            <v>44479</v>
-          </cell>
-          <cell r="D11">
-            <v>1111.9536000000001</v>
-          </cell>
-          <cell r="E11">
-            <v>44479</v>
-          </cell>
-          <cell r="F11">
-            <v>982.58648393392298</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>44480</v>
-          </cell>
-          <cell r="B12">
-            <v>923.50677823814499</v>
-          </cell>
-          <cell r="C12">
-            <v>44480</v>
-          </cell>
-          <cell r="D12">
-            <v>923.50677823814499</v>
-          </cell>
-          <cell r="E12">
-            <v>44480</v>
-          </cell>
-          <cell r="F12">
-            <v>923.50677823814499</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>44481</v>
-          </cell>
-          <cell r="C13">
-            <v>44481</v>
-          </cell>
-          <cell r="D13">
-            <v>956.00210000000004</v>
-          </cell>
-          <cell r="E13">
-            <v>44481</v>
-          </cell>
-          <cell r="F13">
-            <v>962.43824851531599</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>44482</v>
-          </cell>
-          <cell r="B14">
-            <v>1001.3697187924877</v>
-          </cell>
-          <cell r="C14">
-            <v>44482</v>
-          </cell>
-          <cell r="D14">
-            <v>1001.3697187924877</v>
-          </cell>
-          <cell r="E14">
-            <v>44482</v>
-          </cell>
-          <cell r="F14">
-            <v>1001.3697187924899</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3502,12 +3207,13 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -3521,13 +3227,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
